--- a/吉田学園情報ビジネス専門学校_片野裕哉/Flying_Rope/開発環境/data/MAP_DATA/map_data.xlsx
+++ b/吉田学園情報ビジネス専門学校_片野裕哉/Flying_Rope/開発環境/data/MAP_DATA/map_data.xlsx
@@ -32,21 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>０：何も置かない
-１：ブロックを置く</t>
-    <rPh sb="2" eb="3">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>０：何も置かない
 １：ブロックを置く
@@ -215,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +244,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -285,35 +277,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -326,8 +320,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -380,6 +389,112 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -671,7 +786,7 @@
   <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="BK21" sqref="BK21"/>
+      <selection activeCell="BN37" sqref="BN37:BP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7765,21 +7880,21 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
-      <c r="BN37" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO37" s="15"/>
-      <c r="BP37" s="16"/>
+      <c r="BN37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="18"/>
     </row>
     <row r="38" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="BN38" s="17"/>
-      <c r="BO38" s="18"/>
-      <c r="BP38" s="19"/>
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="21"/>
     </row>
     <row r="39" spans="1:68" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="BN39" s="20"/>
-      <c r="BO39" s="21"/>
-      <c r="BP39" s="22"/>
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7787,12 +7902,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BM37">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7803,10 +7918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
+    <sheetView zoomScale="46" zoomScaleNormal="46" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="BN37" sqref="BN37:BP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7814,7 +7929,7 @@
     <col min="1" max="65" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -8203,11 +8318,6 @@
         <v>0</v>
       </c>
       <c r="BM2" s="1"/>
-      <c r="BN2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="16"/>
     </row>
     <row r="3" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
@@ -8403,11 +8513,8 @@
         <v>0</v>
       </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="19"/>
     </row>
-    <row r="4" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -8601,9 +8708,6 @@
         <v>0</v>
       </c>
       <c r="BM4" s="1"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="21"/>
-      <c r="BP4" s="22"/>
     </row>
     <row r="5" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
@@ -8988,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK6" s="7">
         <v>0</v>
@@ -14068,7 +14172,7 @@
       </c>
       <c r="BM32" s="1"/>
     </row>
-    <row r="33" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>0</v>
       </c>
@@ -14263,7 +14367,7 @@
       </c>
       <c r="BM33" s="1"/>
     </row>
-    <row r="34" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>0</v>
       </c>
@@ -14458,7 +14562,7 @@
       </c>
       <c r="BM34" s="1"/>
     </row>
-    <row r="35" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>0</v>
       </c>
@@ -14653,7 +14757,7 @@
       </c>
       <c r="BM35" s="1"/>
     </row>
-    <row r="36" spans="1:65" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -14848,7 +14952,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -14914,14 +15018,37 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
+      <c r="BN37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="18"/>
+    </row>
+    <row r="38" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="21"/>
+    </row>
+    <row r="39" spans="1:68" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="24"/>
+    </row>
+    <row r="40" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="BN2:BP4"/>
+    <mergeCell ref="BN37:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BM37">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="A1:BL36">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14932,10 +15059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
+    <sheetView zoomScale="46" zoomScaleNormal="46" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14943,7 +15070,7 @@
     <col min="1" max="65" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -15332,11 +15459,9 @@
         <v>0</v>
       </c>
       <c r="BM2" s="1"/>
-      <c r="BN2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="24"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
     </row>
     <row r="3" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
@@ -15442,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="7">
         <v>0</v>
@@ -15532,11 +15657,11 @@
         <v>0</v>
       </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="25"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="27"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
     </row>
-    <row r="4" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -15730,9 +15855,9 @@
         <v>0</v>
       </c>
       <c r="BM4" s="1"/>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="29"/>
-      <c r="BP4" s="30"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
     </row>
     <row r="5" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
@@ -21194,7 +21319,7 @@
       </c>
       <c r="BM32" s="1"/>
     </row>
-    <row r="33" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>0</v>
       </c>
@@ -21389,7 +21514,7 @@
       </c>
       <c r="BM33" s="1"/>
     </row>
-    <row r="34" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>0</v>
       </c>
@@ -21584,7 +21709,7 @@
       </c>
       <c r="BM34" s="1"/>
     </row>
-    <row r="35" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>0</v>
       </c>
@@ -21779,7 +21904,7 @@
       </c>
       <c r="BM35" s="1"/>
     </row>
-    <row r="36" spans="1:65" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -21974,7 +22099,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -22040,15 +22165,33 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
+      <c r="BN37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="18"/>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="21"/>
+    </row>
+    <row r="39" spans="1:68" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="BN2:BP4"/>
+    <mergeCell ref="BN37:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BM37">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A1:BL36">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>A1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22058,18 +22201,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
-    </sheetView>
+    <sheetView zoomScale="47" zoomScaleNormal="47" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="65" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -22437,7 +22578,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="7">
         <v>1</v>
@@ -22458,11 +22599,9 @@
         <v>1</v>
       </c>
       <c r="BM2" s="1"/>
-      <c r="BN2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="16"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
     </row>
     <row r="3" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
@@ -22658,11 +22797,11 @@
         <v>1</v>
       </c>
       <c r="BM3" s="1"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="19"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
     </row>
-    <row r="4" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -22850,15 +22989,15 @@
         <v>0</v>
       </c>
       <c r="BK4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="8">
         <v>1</v>
       </c>
       <c r="BM4" s="1"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="21"/>
-      <c r="BP4" s="22"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
     </row>
     <row r="5" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
@@ -23813,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="7">
         <v>0</v>
@@ -28320,7 +28459,7 @@
       </c>
       <c r="BM32" s="1"/>
     </row>
-    <row r="33" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>0</v>
       </c>
@@ -28515,7 +28654,7 @@
       </c>
       <c r="BM33" s="1"/>
     </row>
-    <row r="34" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>0</v>
       </c>
@@ -28710,7 +28849,7 @@
       </c>
       <c r="BM34" s="1"/>
     </row>
-    <row r="35" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>0</v>
       </c>
@@ -28905,7 +29044,7 @@
       </c>
       <c r="BM35" s="1"/>
     </row>
-    <row r="36" spans="1:65" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:68" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -29100,7 +29239,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:65" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -29166,15 +29305,33 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
+      <c r="BN37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="18"/>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="21"/>
+    </row>
+    <row r="39" spans="1:68" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="BN2:BP4"/>
+    <mergeCell ref="BN37:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BM37">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A1:BL36">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>A1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/吉田学園情報ビジネス専門学校_片野裕哉/Flying_Rope/開発環境/data/MAP_DATA/map_data.xlsx
+++ b/吉田学園情報ビジネス専門学校_片野裕哉/Flying_Rope/開発環境/data/MAP_DATA/map_data.xlsx
@@ -32,23 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
-    <t>０：何も置かない
-１：ブロックを置く
-２：ゴールを置く</t>
-    <rPh sb="2" eb="3">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
+    <t>１：ブロックを置く</t>
+  </si>
+  <si>
+    <t>２：ゴールを置く</t>
+  </si>
+  <si>
+    <t>０：何も置かない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -99,12 +91,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -254,34 +258,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -310,7 +325,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -318,6 +333,34 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -359,7 +402,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -370,14 +413,32 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -387,18 +448,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -430,7 +479,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -438,6 +487,93 @@
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -452,8 +588,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -461,6 +595,39 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -785,9 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="BN37" sqref="BN37:BP39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7814,7 +7979,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7881,34 +8046,38 @@
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO37" s="17"/>
       <c r="BP37" s="18"/>
     </row>
-    <row r="38" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="BN38" s="19"/>
+    <row r="38" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO38" s="20"/>
       <c r="BP38" s="21"/>
     </row>
-    <row r="39" spans="1:68" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="BN39" s="22"/>
+    <row r="39" spans="1:68" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="BO39" s="23"/>
       <c r="BP39" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BN37:BP39"/>
+  <mergeCells count="3">
+    <mergeCell ref="BN37:BP37"/>
+    <mergeCell ref="BN38:BP38"/>
+    <mergeCell ref="BN39:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BM37">
-    <cfRule type="expression" dxfId="14" priority="2">
+  <conditionalFormatting sqref="A1:BL36">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>A1=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7921,7 +8090,7 @@
   <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView zoomScale="46" zoomScaleNormal="46" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="BN37" sqref="BN37:BP39"/>
+      <selection activeCell="BL36" sqref="A1:BL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14952,7 +15121,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -15019,18 +15188,22 @@
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO37" s="17"/>
       <c r="BP37" s="18"/>
     </row>
-    <row r="38" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="BN38" s="19"/>
+    <row r="38" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO38" s="20"/>
       <c r="BP38" s="21"/>
     </row>
-    <row r="39" spans="1:68" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="BN39" s="22"/>
+    <row r="39" spans="1:68" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="BO39" s="23"/>
       <c r="BP39" s="24"/>
     </row>
@@ -15040,15 +15213,17 @@
       <c r="BP40" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BN37:BP39"/>
+  <mergeCells count="3">
+    <mergeCell ref="BN37:BP37"/>
+    <mergeCell ref="BN38:BP38"/>
+    <mergeCell ref="BN39:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BL36">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15062,7 +15237,7 @@
   <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView zoomScale="46" zoomScaleNormal="46" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection sqref="A1:BL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22099,7 +22274,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -22166,32 +22341,38 @@
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO37" s="17"/>
       <c r="BP37" s="18"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="BN38" s="19"/>
+    <row r="38" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO38" s="20"/>
       <c r="BP38" s="21"/>
     </row>
-    <row r="39" spans="1:68" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="BN39" s="22"/>
+    <row r="39" spans="1:68" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="BO39" s="23"/>
       <c r="BP39" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BN37:BP39"/>
+  <mergeCells count="3">
+    <mergeCell ref="BN37:BP37"/>
+    <mergeCell ref="BN38:BP38"/>
+    <mergeCell ref="BN39:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BL36">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>A1=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29239,7 +29420,7 @@
       </c>
       <c r="BM36" s="1"/>
     </row>
-    <row r="37" spans="1:68" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -29306,32 +29487,38 @@
       <c r="BL37" s="2"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO37" s="17"/>
       <c r="BP37" s="18"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="BN38" s="19"/>
+    <row r="38" spans="1:68" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO38" s="20"/>
       <c r="BP38" s="21"/>
     </row>
-    <row r="39" spans="1:68" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="BN39" s="22"/>
+    <row r="39" spans="1:68" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BN39" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="BO39" s="23"/>
       <c r="BP39" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BN37:BP39"/>
+  <mergeCells count="3">
+    <mergeCell ref="BN37:BP37"/>
+    <mergeCell ref="BN38:BP38"/>
+    <mergeCell ref="BN39:BP39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BL36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>A1=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
